--- a/Scripts/KeywordResults.xlsx
+++ b/Scripts/KeywordResults.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D136"/>
+  <dimension ref="A1:D406"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,36 +478,36 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Optimizing GC-MS and GC-MS/MS analysis of 3-MCPD and glycidyl esters</t>
+          <t>Chemical Analysis of Pesticides Using GC/MS, GC/MS/MS, and LC/MS/MS</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>10.1021/scimeetings.0c00059</t>
+          <t>10.5772/13242</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1021/scimeetings.0c00059</t>
+          <t>http://dx.doi.org/10.5772/13242</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Chemical Analysis of Pesticides Using GC/MS, GC/MS/MS, and LC/MS/MS</t>
+          <t>Optimizing GC-MS and GC-MS/MS analysis of 3-MCPD and glycidyl esters</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>10.5772/13242</t>
+          <t>10.1021/scimeetings.0c00059</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.5772/13242</t>
+          <t>http://dx.doi.org/10.1021/scimeetings.0c00059</t>
         </is>
       </c>
     </row>
@@ -1710,80 +1710,80 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Effective Sample Preparations in Imaging Mass Spectrometry</t>
+          <t>Introduction of Taiwan Society for Mass Spectrometry</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>10.5702/massspectrometry.s0029</t>
+          <t>10.5478/msl.2011.2.2.029</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.5702/massspectrometry.s0029</t>
+          <t>http://dx.doi.org/10.5478/msl.2011.2.2.029</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Introduction of Taiwan Society for Mass Spectrometry</t>
+          <t>Computers in mass spectrometry</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>10.5478/msl.2011.2.2.029</t>
+          <t>10.1002/mas.21536</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.5478/msl.2011.2.2.029</t>
+          <t>http://dx.doi.org/10.1002/mas.21536</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Computers in mass spectrometry</t>
+          <t>Effective Sample Preparations in Imaging Mass Spectrometry</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>10.1002/mas.21536</t>
+          <t>10.5702/massspectrometry.s0029</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1002/mas.21536</t>
+          <t>http://dx.doi.org/10.5702/massspectrometry.s0029</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Technical Challenges in Mass Spectrometry-Based Metabolomics</t>
+          <t>Brief History of Mass Spectrometry in Korea Related to the Establishment of the Korean Society for Mass Spectrometry</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>10.5702/massspectrometry.s0052</t>
+          <t>10.5478/msl.2010.1.1.001</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.5702/massspectrometry.s0052</t>
+          <t>http://dx.doi.org/10.5478/msl.2010.1.1.001</t>
         </is>
       </c>
     </row>
@@ -3262,6 +3262,5610 @@
       <c r="D136" t="inlineStr">
         <is>
           <t>https://europepmc.org/article/pmc/38760854</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Study the Genetic Variance of Genotypes of Maize (Zea mays L.)</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>10.56286/ntujavs.v4i1.843</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.56286/ntujavs.v4i1.843</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Zea mays subsp. parviglumis</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>10.1079/cabicompendium.119082</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1079/cabicompendium.119082</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Zea diploperennis Iltis, Doebley, &amp;amp; R. Guzmán Zea perennis (Hitchc.) Reeves &amp;amp; Mangelsd. Zea luxurians (Durieu &amp;amp; Asch.) R.M. Bird Zea nicaraguensis Iltis &amp;amp; B.F. Benz Zea vespertilio Gómez-Laur. Zea mays subsp. huehuetenangensis (Iltis &amp;amp; Doebley) Doebley Zea mays subsp. mexicana (Schrad.) Iltis Zea mays subsp. parviglumis Iltis &amp;amp; Doebley Zea mays L. subsp. mays Poaceae</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>10.1007/978-3-030-99357-3_54</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1007/978-3-030-99357-3_54</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Zea diploperennis Iltis, Doebley, &amp;amp; R. Guzmán Zea perennis (Hitchc.) Reeves &amp;amp; Mangelsd. Zea luxurians (Durieu &amp;amp; Asch.) R.M. Bird Zea nicaraguensis Iltis &amp;amp; B.F. Benz Zea vespertilio Gómez-Laur. Zea mays subsp. huehuetenangensis (Iltis &amp;amp; Doebley) Doebley Zea mays subsp. mexicana (Schrad.) Iltis Zea mays subsp. parviglumis Iltis &amp;amp; Doebley Zea mays L. subsp. Mays Poaceae</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>10.1007/978-3-319-77089-5_54-1</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1007/978-3-319-77089-5_54-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>CORN, SWEET (Zea mays var. saccharata)Sweet (Zea mays var. saccharata)</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>10.1007/978-1-4020-4585-1_1790</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1007/978-1-4020-4585-1_1790</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Zea mays Linn.</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>10.1007/springerreference_69736</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1007/springerreference_69736</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Maize (Zea mays)</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>10.1007/springerreference_100192</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1007/springerreference_100192</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Zea mays subsp. mexicana (teosinte)</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>10.1079/cabicompendium.57416</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1079/cabicompendium.57416</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Maize (Zea mays L.). Specification</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>10.3403/30303053u</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.3403/30303053u</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Zea mays</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>10.17077/etd.s018b1sn</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.17077/etd.s018b1sn</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Zea mays subsp. mays (sweetcorn)</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>10.1079/cabicompendium.58357</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1079/cabicompendium.58357</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Adubação organomineral e NPK na cultura do milho (Zea mays L.)</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>10.22256/pubvet.v11n5.501-512</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.22256/pubvet.v11n5.501-512</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Aprovechamiento de residuos del maíz (Zea mays) en la industria: Revisión bibliográfica</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>10.35588/rivar.v10i31.5980</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.35588/rivar.v10i31.5980</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Zea mays</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>10.1515/9783112359600-115</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>1951</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1515/9783112359600-115</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>10.46936/10.25585/60007946</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.46936/10.25585/60007946</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Mitochondrial DNA insertions in the nuclear genomes of maize (Zea mays ssp. mays)</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>10.32469/10355/14508</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.32469/10355/14508</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Maize (Zea mays subsp. mays)</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>10.1787/9789264053465-4-en</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>2008</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1787/9789264053465-4-en</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Functional Markers in Zea mays L</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>10.31274/cc-20240624-772</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.31274/cc-20240624-772</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Physiology of dry Zea mays grain</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>10.31274/rtd-180816-3094</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.31274/rtd-180816-3094</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Physiology of dry Zea mays grain</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>10.31274/rtd-180813-3094</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.31274/rtd-180813-3094</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Manipulating the Maize (&lt;i&gt;Zea mays&lt;/i&gt;) Microbiome.</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>39237453</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39237453</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Genomic selection and enablers for agronomic traits in maize (Zea mays): A review</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Sampling Maize (&lt;i&gt;Zea mays&lt;/i&gt;) Seed Endophytes.</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>39237455</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39237455</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Sampling the Maize (&lt;i&gt;Zea mays&lt;/i&gt;) Leaf Microbiome.</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>39237448</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39237448</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Amino mapping: possibility to visualize amino-N compounds in the rhizosphere of Zea Mays L.</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>A novel in vivo genome editing doubled haploid system for Zea mays L.</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>39333351</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39333351</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>A new approach to Fourier transform Raman: Identification of haploids in maize (Zea mays)</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>First record of the Liriomyza blechi Spencer (Diptera: Agromyzidae) on maize (Zea mays L.)</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Postmeiotic irregular anther1 (PIA1) is required for anther cuticle and pollen exine development in maize (Zea mays L.)</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Hyperspectral estimation of maize (Zea mays L.) yield loss under lodging stress</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Sampling Root-Associated Microbiome Communities of Maize (&lt;i&gt;Zea mays&lt;/i&gt;).</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>39237450</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39237450</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Plant emergence and maize (Zea mays L.) yield across multiple farmers’ fields</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Precise Positioning in Nitrogen Fertility Sensing in Maize (&lt;i&gt;Zea mays&lt;/i&gt; L.).</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>39205016</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39205016</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>The &lt;i&gt;Zea mays&lt;/i&gt; PeptideAtlas: A New Maize Community Resource.</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>39101213</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39101213</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>&lt;i&gt;BonnMu&lt;/i&gt;: A Resource for Functional Genomics in Maize (&lt;i&gt;Zea mays&lt;/i&gt; L.).</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>39251333</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39251333</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Arbuscular Mycorrhizal Fungi Ameliorate Selenium Stress and Increase Antioxidant Potential of Zea mays in Seleniferous Soil.</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>39384668</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39384668</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Unveiling the Nutrient Signatures in Corn (Zea Mays L.) Grains: A Pivotal Indicator of Yield Potential</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Breeding for improved digestibility and processing of lignocellulosic biomass in &lt;i&gt;Zea mays&lt;/i&gt;.</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>39129761</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39129761</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Effects of pelleted sugarcane biochar applications on growth, yield and economics of rainfed corn (Zea mays L.) in the Mississippi Delta</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Foliar Uptake and Distribution of Metallic Oxide Nanoparticles in Maize (&lt;i&gt;Zea mays&lt;/i&gt; L.) Leaf.</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>39258394</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39258394</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Transcription factor ZmEREB97 regulates nitrate uptake in maize (Zea mays) roots.</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>38743701</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/38743701</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Rupture Test: A New Method for Evaluating Maize (&lt;i&gt;Zea mays&lt;/i&gt;) Seed Vigour.</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>38999687</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/38999687</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>The anti-inflammatory effect of a magnoliae cortex and Zea mays L. extract mixture in a canine model of ligature-induced periodontitis.</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>39342169</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39342169</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>A novel NAC transcription factor ZmNAC55 negatively regulates drought stress in Zea mays.</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>39067103</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39067103</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Genetic, molecular and physiological crosstalk during drought tolerance in maize (Zea mays): pathways to resilient agriculture.</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>39196449</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39196449</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Gas Chromatography Instrumentation</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>10.1201/9781315274546-5</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1201/9781315274546-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Gas Chromatography Detectors</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>10.1201/9781315274546-6</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1201/9781315274546-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Gas Chromatography Applications</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>10.1201/9781315274546-11</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1201/9781315274546-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>- Troubleshooting in Gas Chromatography</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>10.1201/b14954-11</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1201/b14954-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Pyrolysis Gas Chromatography</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>10.1016/b978-0-12-385540-4.00011-0</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1016/b978-0-12-385540-4.00011-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>- Developments in Gas Chromatography</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>10.1201/b14954-12</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1201/b14954-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>- Instrumentation for Gas Chromatography</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>10.1201/b14954-7</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1201/b14954-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Introduction to Gas Chromatography</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>10.1201/9781315274546-1</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1201/9781315274546-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Applications of Gas Chromatography</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>10.1016/b978-0-12-452756-0.50016-6</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>1970</v>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1016/b978-0-12-452756-0.50016-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Thermal desorption gas chromatography</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>10.1016/b978-0-12-820675-1.00009-5</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1016/b978-0-12-820675-1.00009-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Pyrolysis-gas chromatography</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>10.1016/b978-0-12-820675-1.00006-x</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1016/b978-0-12-820675-1.00006-x</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Gas Phase Chromatography</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>10.1007/978-1-4684-8291-1</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>1960</v>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1007/978-1-4684-8291-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>- Introduction to Gas Chromatography</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>10.1201/b14954-6</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1201/b14954-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>CHROMATOGRAPHY: GAS | Gas–Solid Gas Chromatography</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>10.1016/b0-12-226770-2/00151-4</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1016/b0-12-226770-2/00151-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Physicochemical Measurements (Inverse Gas Chromatography)</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>10.1016/b978-0-12-385540-4.00020-1</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1016/b978-0-12-385540-4.00020-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Thermal Desorption for Gas Chromatography</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>10.1016/b978-0-12-385540-4.00010-9</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1016/b978-0-12-385540-4.00010-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Gas–Solid Chromatography (PLOT Columns)</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>10.1016/b978-0-12-385540-4.00005-5</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1016/b978-0-12-385540-4.00005-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Theory of Gas Chromatography</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>10.1016/b978-0-12-385540-4.00002-x</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1016/b978-0-12-385540-4.00002-x</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Theory of gas chromatography</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>10.1016/b978-0-12-820675-1.00026-5</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1016/b978-0-12-820675-1.00026-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Tips for Gas Chromatography</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>10.1016/b978-012483385-2/50037-3</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>1996</v>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1016/b978-012483385-2/50037-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Effect of puffing treatment on volatile components of green tea explored by gas chromatography-mass spectrometry and gas chromatography-olfactometry.</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>39257491</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39257491</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Identification of volatile differential markers in strong-aroma Baijiu based on gas chromatography-electronic nose combined with gas chromatography-time-of-flight mass spectrometry.</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>39271470</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39271470</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Multireflecting gas chromatography-multireflecting time-of-flight mass spectrometer with high dynamic range.</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>39254045</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39254045</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Insights into the Flavor Profile of Yak Jerky from Different Muscles Based on Electronic Nose, Electronic Tongue, Gas Chromatography-Mass Spectrometry and Gas Chromatography-Ion Mobility Spectrometry.</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>39335840</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39335840</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Integrated interferometers as a new platform for low cost gas chromatography detection.</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>39260259</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39260259</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>How environmentally friendly is the disposal of clear aligners? A gas chromatography-mass spectrometry study.</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>39352330</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39352330</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Manifestation of relativistic effects in the chemical properties of nihonium and moscovium revealed by gas chromatography studies.</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>39391836</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39391836</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Complementarity of two-dimensional gas chromatography and two-dimensional liquid chromatography for the analysis of depolymerised lignin.</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>39342732</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39342732</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Flavoromic analysis of wines using gas chromatography, mass spectrometry and sensory techniques.</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>39181094</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39181094</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Analysis of forensic polymer samples using double shot pyrolysis gas chromatography - Mass spectrometry.</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>39340902</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39340902</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Determination of Volatile Halogenated Hydrocarbons in Drinking and Environmental Waters by Headspace Gas Chromatography.</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>39119868</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39119868</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Generalized flow calculation of the gas flow in a network of capillaries used in gas chromatography.</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>39178022</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39178022</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Doping Control Analysis of Perfluorocarbons in Equine Plasma by Headspace Gas Chromatography-Tandem Mass Spectrometry.</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>39295175</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39295175</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Flow-modulation comprehensive two-dimensional enantio-gas chromatography: A valid and flexible alternative to heart-cutting multidimensional enantio-gas chromatography.</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>38677163</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/38677163</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Overlooked Trace Molecules in Organic Aerosol Revealed by Gas Chromatography-Orbitrap Mass Spectrometry.</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>39221859</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39221859</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Enantioseparation of pesticides by gas chromatography. Measurement of association constants enantiomer-chiral selector.</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>39053254</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39053254</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Ionic Liquid-Based Hybrid Gel Microcolumns for Enhanced Narcotic Detection in Portable Micro-Gas Chromatography.</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>39344136</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39344136</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Validation and Collaborative Studies of Headspace Gas Chromatography-Mass Spectrometry for Determination of 1,4-Dioxane in Cosmetic Samples.</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>38941500</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/38941500</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Gas chromatography-mass spectrometry determination of nicotine and cotinine in urine: A study of the effect of passive smoking.</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>38972852</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/38972852</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Discrimination and screening of volatile metabolites in atractylodis rhizoma from different varieties using headspace solid-phase microextraction-gas chromatography-mass spectrometry and headspace gas chromatography-ion mobility spectrometry, and ultra-fast gas chromatography electronic nose.</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>38703457</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/38703457</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Waste Point Identification of Frying Oil Based on Gas Chromatography-Ion Mobility Spectrometry (GC-IMS).</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>39203057</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39203057</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Determination of specific surface area of biomass activated carbon vial headspace gas chromatography technique.</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>39181093</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39181093</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Formaldehyde quantification using gas chromatography-mass spectrometry reveals high background environmental formaldehyde levels.</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>39232096</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39232096</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Characteristic volatile product analysis of moldy cigar wrapper and filler using gas chromatography-ion mobility spectrometry.</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>39375285</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39375285</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Sweat-based stress screening with gas chromatography-ion mobility spectrometry and electronic nose.</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>39142792</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39142792</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Journal of Heavy Metal Toxicity and Diseases</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>10.21767/2473-6457</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr"/>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.21767/2473-6457</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Which Strategies can be Adopted against Heavy Metal Intoxication?</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>10.21767/2473-6457.100014</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr"/>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.21767/2473-6457.100014</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>A Role for Heavy Metal Toxicity and Air Pollution in Respiratory Tract Cancers</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>10.5772/intechopen.90092</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr"/>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.5772/intechopen.90092</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Heavy Metal Toxicity in Plants: Physiological and Molecular Adaptations</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>10.1201/9781003155089-1</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1201/9781003155089-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Heavy Metals and Autism</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>10.21767/2473-6457.100012</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr"/>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.21767/2473-6457.100012</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Heavy Metals and Chelation Therapy</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>10.21767/2473-6457.100001</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr"/>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.21767/2473-6457.100001</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Life Cycle Assessment of Heavy Metal Toxicity in the Environment</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>10.1007/978-981-99-0397-9_10</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1007/978-981-99-0397-9_10</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Heavy Metal Toxicity and Measures to Removal</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>10.23880/jonam-16000215</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr"/>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.23880/jonam-16000215</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Heavy Metal Mercury and its Toxicity – A Review</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>10.23880/jonam-16000335</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr"/>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.23880/jonam-16000335</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Assessment of Heavy Metal Enrichment and the Degree of Contamination in Coastal Sediment from South East Coast of Tamilnadu, India</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>10.21767/2473-6457.100011</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr"/>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.21767/2473-6457.100011</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Heavy Metal Toxicity in Plants: Impact, Signaling, and Remediation Strategies</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>10.1201/9781003155089-2</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1201/9781003155089-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Heavy Metal Toxicity and Their Effects on Environment</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>10.1007/978-3-031-56642-4_1</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1007/978-3-031-56642-4_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Management of Acute Copper Sulphate Poisoning</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>10.21767/2473-6457.10022</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr"/>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.21767/2473-6457.10022</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Heavy Metal Toxicity</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>10.1016/b978-1-4160-3969-3.00115-3</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1016/b978-1-4160-3969-3.00115-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Physical, Chemical and Phytoremediation Technique for Removal of Heavy Metals</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>10.21767/2473-6457.100010</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr"/>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.21767/2473-6457.100010</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Clinical Features of Acute Copper Sulphate Poisoning</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>10.21767/2473-6457.10021</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr"/>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.21767/2473-6457.10021</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>BIOINDICATORS OF DEEP-TIME HEAVY METAL TOXICITY: TESTING THE END-PERMIAN HEAVY METAL TOXICITY HYPOTHESIS</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>10.1130/abs/2019am-332214</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1130/abs/2019am-332214</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Heavy Metal Assessment in Sediment Samples Collected From Pattipulam to Dhevanampattinam along the East Coast of Tamil Nadu Using EDXRF Technique.</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>10.21767/2473-6457.100008</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr"/>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.21767/2473-6457.100008</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Introduction to Heavy Metal Toxicity in Mammals</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>10.1007/978-1-4684-2952-7_1</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>1977</v>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1007/978-1-4684-2952-7_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Heavy-metal toxicity phenomena in laboratory-scale ANFLOW bioreactors</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>10.2172/5287986</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr"/>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.2172/5287986</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>First report of a chemokine from camelids: Dromedary CXCL8 is induced by poxvirus and heavy metal toxicity.</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>39241936</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39241936</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Minimization of heavy metal toxicity in radish (Raphanus sativus) by strigolactone and biochar.</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>38871988</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/38871988</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Understanding heavy metal toxicity: Implications on human health, marine ecosystems and bioremediation strategies.</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>39018825</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39018825</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Polysaccharides as Protective Agents against Heavy Metal Toxicity.</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>38540843</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/38540843</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Mitigation of heavy metal toxicity in pigeon pea by plant growth promoting Pseudomonas alcaliphila strain PAS1 isolated from contaminated environment.</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>39316275</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39316275</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Health risk assessment of heavy metal toxicity in the aquatic environment of the Persian Gulf.</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>38636344</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/38636344</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Heavy metal toxicity leads to accumulation of insoluble proteins and induces endoplasmic reticulum stress-specific unfolded protein response in Arabidopsis thaliana.</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>39180659</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39180659</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Mitigation strategies for heavy metal toxicity and its negative effects on soil and plants.</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>38494751</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/38494751</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Guardians of the Gut: Harnessing the Power of Probiotic Microbiota and Their Exopolysaccharides to Mitigate Heavy Metal Toxicity in Human for Better Health.</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>38733461</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/38733461</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Biomonitoring of Heavy Metal Toxicity in Freshwater Canals in Egypt Using Creeping Water Bugs (&lt;i&gt;Ilyocoris cimicoides&lt;/i&gt;): Oxidative Stress, Histopathological, and Ultrastructural Investigations.</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>39334698</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39334698</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Unveiling the silent threat: Heavy metal toxicity devastating impact on aquatic organisms and DNA damage.</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>38367585</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/38367585</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Nano-enabled agrochemicals: mitigating heavy metal toxicity and enhancing crop adaptability for sustainable crop production.</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>38443975</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/38443975</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Heavy metal toxicity in poultry: a comprehensive review.</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>37456954</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/37456954</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Exploiting the role of plant growth promoting rhizobacteria in reducing heavy metal toxicity of pepper (Capsicum annuum L.).</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>38512572</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/38512572</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Nano-enabled agrochemicals: mitigating heavy metal toxicity and enhancing crop adaptability for sustainable crop production</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Nano-Priming for Inducing Salinity Tolerance, Disease Resistance, Yield Attributes, and Alleviating Heavy Metal Toxicity in Plants.</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>38337979</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/38337979</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Heavy Metal Toxicity Effects on Plants.</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>36548548</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/36548548</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Honey Can Obviate Heavy Metal Toxicity: A Review.</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>36749092</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/36749092</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Optimization of ultrasonic extraction of polysaccharides from Flammulina velutipes residue and its protective effect against heavy metal toxicity</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Comprehensive mechanisms of heavy metal toxicity in plants, detoxification, and remediation.</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>36867909</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/36867909</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Enhanced use of chemical fertilizers and mitigation of heavy metal toxicity using biochar and the soil fungus Bipolaris maydis AF7 in rice: Genomic and metabolomic perspectives.</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>38218102</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/38218102</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Plant Growth-Promoting Rhizobacteria (PGPR) Assisted Bioremediation of Heavy Metal Toxicity.</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>37097400</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/37097400</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Assessment of in situ stabilization and heavy metal toxicity reduction of sugar mill pressmud through pilot scale composting.</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>37450081</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/37450081</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Heavy metal toxicity arising from the industrial effluents repercussions on oxidative stress, liver enzymes and antioxidant activity in brain homogenates of Oreochromis niloticus.</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>37968305</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/37968305</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Understanding the Active Mechanisms of Plant (&lt;i&gt;Sesuvium portulacastrum&lt;/i&gt; L.) against Heavy Metal Toxicity.</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>36771762</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/36771762</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Lead and lead alloys. Lead</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>10.3403/01866064</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr"/>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.3403/01866064</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Lead and lead alloys. Lead</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>10.3403/01866064u</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr"/>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.3403/01866064u</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Lead and lead alloys. Lead oxides</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>10.3403/02061030u</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr"/>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.3403/02061030u</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Lead and lead alloys. Lead oxides</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>10.3403/02061030</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr"/>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.3403/02061030</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Lead and lead alloys. Lead and lead alloy sheaths and sleeves of electric cables</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>10.3403/02784904</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr"/>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.3403/02784904</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Lead and lead alloys. Lead and lead alloy sheaths and sleeves of electric cables</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>10.3403/02784904u</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr"/>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.3403/02784904u</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Lead and Lead Alloys</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>10.1007/978-3-662-28508-4_2</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>1970</v>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1007/978-3-662-28508-4_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Methods for the sampling and analysis of lead and lead alloys</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>10.3403/00239948u</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr"/>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.3403/00239948u</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Methods for the sampling and analysis of lead and lead alloys</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>10.3403/00239948</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr"/>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.3403/00239948</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Lead and lead alloys. Rolled lead sheet for building purposes</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>10.3403/01764280</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr"/>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.3403/01764280</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Lead and lead alloys. Rolled lead sheet for building purposes</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>10.3403/30150575</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr"/>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.3403/30150575</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Lead and lead alloys. Rolled lead sheet for building purposes</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>10.3403/01764280u</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr"/>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.3403/01764280u</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Methods for the sampling and analysis of lead and lead alloys</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>10.3403/00028700</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr"/>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.3403/00028700</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Methods for the sampling and analysis of lead and lead alloys</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>10.3403/00028736</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr"/>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.3403/00028736</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Methods for the sampling and analysis of lead and lead alloys</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>10.3403/00028751u</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr"/>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.3403/00028751u</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Methods for the sampling and analysis of lead and lead alloys</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>10.3403/00028775u</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr"/>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.3403/00028775u</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Methods for the sampling and analysis of lead and lead alloys</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>10.3403/00028724</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr"/>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.3403/00028724</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Methods for the sampling and analysis of lead and lead alloys</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>10.3403/00028724u</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr"/>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.3403/00028724u</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Methods for the sampling and analysis of lead and lead alloys</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>10.3403/00028712u</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr"/>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.3403/00028712u</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Methods for the sampling and analysis of lead and lead alloys</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>10.3403/00028775</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr"/>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.3403/00028775</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>A highly sensitive immunochromatographic assay for lead ions in drinking water based on antibody-oriented probe and silver enhancement</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Relationship between blood lead levels and clinical and physiological factors in Bonelli's eagle</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Association of urinary and blood lead concentrations with all-cause mortality in US adults with chronic kidney disease: a prospective cohort study.</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>39369036</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39369036</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Blood Lead Testing and Follow-up Testing Among Children Hospitalized for Lead Poisoning.</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>39352035</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39352035</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>State-Level Childhood Lead Poisoning Prevention Policies and Practices in the United States: 2022-2023.</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>39352029</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39352029</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Sickle Cell Disease and Lead Poisoning in New York City, 2005-2019.</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>39352034</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39352034</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Severe Congenital Lead Poisoning in Siblings.</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>39352037</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39352037</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>A Statewide Program to Test and Reduce Lead in Drinking Water at Schools and Child Cares.</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>39352025</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39352025</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Recently Recalled Children's Products Due to Lead Hazards.</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>39352033</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39352033</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Lead Toxicity From Imported Jewelry.</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>39352039</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39352039</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>The Challenges of Treating Lead Toxicity During the COVID-19 Pandemic.</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>39352028</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39352028</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Traditional Eye Cosmetics and Cultural Powders as a Source of Lead Exposure.</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>39352031</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39352031</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Perspectives on Childhood Lead Exposure Prevention: Looking Back and Looking Ahead.</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>39352026</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39352026</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Lead poisoning as a differential diagnosis in pediatric patients with chronic abdominal pain: a case-control study in Tehran-Iran.</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>39358734</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39358734</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Low-Level, Early Life Lead Exposure and School Behavior.</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>39352038</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39352038</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Collaboration for Lead Poisoning Prevention in Puerto Rico.</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>39352027</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39352027</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>A comparative study on the toxic effects of lead pollution and nanoplastic-lead mixed pollution on red drum and their detoxification strategies.</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>39366049</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39366049</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>High predicted durability for the novel small-diameter OmniaSecure defibrillation lead.</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>39341436</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39341436</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Comparing complication rates between Abbott Tendril 2088 and competitive manufacturer leads: Novel real-world data approach.</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>39344010</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39344010</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>The extraordinarily long lead times of screen-detected lung cancer in never-smokers</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>A meta-analysis of the distance between lead-implanted site and tricuspid valve annulus with postoperative tricuspid regurgitation deterioration in patients with left bundle branch area pacing.</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>39327904</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39327904</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Associations of gestational and childhood exposure to lead, cadmium, and fluoride with cognitive abilities, behavior, and social communication at 4 years of age: NICE Birth Cohort Study.</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>39389199</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39389199</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Effects of Blood Lead Levels &amp;lt;10 µg/dL in School-Age Children and Adolescents: A Scoping Review.</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>39352036</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39352036</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Obesity-related indices as predictors of lower extremity arterial disease in type 2 diabetes mellitus.</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>39365387</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39365387</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Bone lead measurements of live condors in field to assess cumulative lead exposure.</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>39264498</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39264498</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Metabolomics Society’s annual Metabolomics publication awards</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>10.1007/s11306-013-0577-y</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1007/s11306-013-0577-y</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Metabolomics society 2015 Metabolomics publication awards</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>10.1007/s11306-015-0845-0</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1007/s11306-015-0845-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Metabolomics Society 2014 Metabolomics Publication Awards</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>10.1007/s11306-014-0719-x</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1007/s11306-014-0719-x</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>The 2024 Metabolomics publication awards</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>10.1007/s11306-024-02132-z</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr"/>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1007/s11306-024-02132-z</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>NEWS: the 2023 Metabolomics publication awards</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>10.1007/s11306-023-02000-2</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr"/>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1007/s11306-023-02000-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>NEW IN 2005!</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>10.1007/s11306-005-0014-y</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>2005</v>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1007/s11306-005-0014-y</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>NEWS: The 2022 Metabolomics publication awards</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>10.1007/s11306-022-01882-y</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1007/s11306-022-01882-y</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>The continuing growth and development of YOUR metabolomics society</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>10.1007/s11306-013-0537-6</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1007/s11306-013-0537-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>The 2021 Metabolomics publication awards</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>10.1007/s11306-021-01785-4</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1007/s11306-021-01785-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>The 2020 metabolomics publication awards</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>10.1007/s11306-020-01664-4</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1007/s11306-020-01664-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>NEWS: The 2017 Metabolomics publication awards</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>10.1007/s11306-017-1198-7</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1007/s11306-017-1198-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>NEWS: the 2018 Metabolomics publication awards</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>10.1007/s11306-018-1353-9</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1007/s11306-018-1353-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Metabolomics continues to flourish: highlights from the 2014 Metabolomics Society Conference</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>10.1007/s11306-014-0720-4</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1007/s11306-014-0720-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>NEWS: the 2016 Metabolomics publication awards</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>10.1007/s11306-016-1060-3</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1007/s11306-016-1060-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>NEWS: the 2019 Metabolomics publication awards</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>10.1007/s11306-019-1528-z</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1007/s11306-019-1528-z</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Invitation to Metabolomics 2013</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>10.1007/s11306-012-0461-1</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1007/s11306-012-0461-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Metabolomics – the way forward</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>10.1007/s11306-005-1111-7</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>2005</v>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1007/s11306-005-1111-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Metabolomics study of oral cancers</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>10.1007/s11306-019-1483-8</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1007/s11306-019-1483-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>2013 Honorary Fellows of the Metabolomics Society</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>10.1007/s11306-013-0578-x</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1007/s11306-013-0578-x</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>2012 Honorary Fellows of the Metabolomics Society</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>10.1007/s11306-013-0512-2</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1007/s11306-013-0512-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>(Pre)Clinical Metabolomics Analysis.</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>39354298</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39354298</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Global Metabolomics Using LC-MS for Clinical Applications.</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>39354299</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39354299</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>CE-MS-Based Clinical Metabolomics of Human Plasma.</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>39354320</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39354320</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Distinguishing Artifactual Fatty Acid Dimers from Fatty Acid Esters of Hydroxy Fatty Acids in Untargeted LC-MS Pipelines.</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>39354301</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39354301</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>In Situ Isotope Tracing at Single-Cell Resolution Using Mass Spectrometry Imaging.</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>39354325</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39354325</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Application of a Computational Metabolomics Workflow for the Diagnosis of Inborn Errors of Metabolism in a Laboratory Setting.</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>39354327</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39354327</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>NMR-Based Analysis of Cellular Central Energy Metabolism and Exchange Rates.</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>39354324</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39354324</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Quantitative Blood Serum IVDr NMR Spectroscopy in Clinical Metabolomics of Cancer, Neurodegeneration, and Internal Medicine.</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>39354321</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39354321</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Identifying Putative Biomarkers of Foodborne Pathogens Using a Metabolomic Approach.</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>39235749</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39235749</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>NMR-Based Stable Isotope Tracing of Cancer Metabolism.</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>39354323</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39354323</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Metabolomics: A compilation of applications for enhancing agricultural traits, disease resistance, biotic interaction, byproducts valorization, and quality control purposes of olive</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Rapid Analysis of Sterols in Blood-Derived Samples.</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>39354314</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39354314</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Stable Isotope Tracing Experiments Using LC-MS.</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>39354303</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39354303</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Advances in Chiral Metabolomic Profiling and Biomarker Discovery.</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>39354302</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39354302</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Influence of drought stress on increasing bioactive compounds of pomegranate (Punica granatum L.) juice. Exploratory study using LC–MS-based untargeted metabolomics approach</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Navigating common pitfalls in metabolite identification and metabolomics bioinformatics.</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>39305388</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39305388</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>A Comprehensive Spatially Resolved Metabolomics Dataset for Lampreys.</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>39358393</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39358393</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Saliva metabolomics: concepts and applications in oral disorders.</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>39377832</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39377832</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Combination of low glucose and SCD1 inhibition impairs cancer metabolic plasticity and growth in MCF-7 cancer cells: a comprehensive metabolomic and lipidomic analysis.</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>39369160</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39369160</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Infants with biliary atresia exhibit an altered amino acid profile in their newborn screening.</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>39369162</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39369162</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Exploring the circulating metabolome of sepsis: metabolomic and lipidomic profiles sampled in the ambulance.</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>39369060</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39369060</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Advances in mass spectrometry for metabolomics: Strategies, challenges, and innovations in disease biomarker discovery.</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>39370857</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39370857</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>GC-MS metabolomics of French lettuce (Lactuca Sativa L. var capitata) leaves exposed to bisphenol A via the hydroponic media.</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>39306645</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39306645</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Integrated metabolomics and gut microbiota analysis to explore potential mechanism of Qi-Huo-Yi-Fei formula against chronic obstructive pulmonary disease.</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>39383542</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39383542</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>A comparative metabolomics study of polyphenols in highland barley (Hordeum vulgare L.) grains with different colors</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Welcome to the new journal Plant Stress</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>10.1016/j.stress.2020.100001</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1016/j.stress.2020.100001</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Journal of Plant Stress Physiology</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>10.5455/jpsp.</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr"/>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.5455/jpsp.</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Plant stress response and adaptation via anthocyanins: A review</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>10.1016/j.stress.2023.100230</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1016/j.stress.2023.100230</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Plant Stress Laboratory review, 1986-1987 : April 20, 1988</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>10.5962/bhl.title.149967</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>1988</v>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.5962/bhl.title.149967</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Plant Stress is pleased to announce that we have two new editors joining the journal</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>10.1016/j.stress.2021.100051</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1016/j.stress.2021.100051</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Plant development, stress responses, and secondary metabolism under ethylene regulation</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>10.1016/j.stress.2023.100146</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1016/j.stress.2023.100146</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Carbon Metabolism and Plant Stress</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>10.1201/b10329-27</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1201/b10329-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>The role of hormones in plant stress: The old and new players</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>10.1016/j.stress.2024.100552</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1016/j.stress.2024.100552</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Plant Responses to Toxic Metal Stress</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>10.1201/b10329-34</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1201/b10329-34</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Revisiting the role of phenylpropanoids in plant defense against UV-B stress</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>10.1016/j.stress.2023.100143</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1016/j.stress.2023.100143</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Tackling plant responses towards abiotic stress combinations – A focus on redox regulation and epigenetic mechanisms</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>10.1016/j.stress.2024.100550</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1016/j.stress.2024.100550</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Karrikins, redox and plant abiotic stress tolerance: A focal review</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>10.1016/j.stress.2023.100185</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1016/j.stress.2023.100185</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Roles of HSP70 in Plant Abiotic Stress</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>10.1201/b15538-7</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1201/b15538-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Protein nitration: A connecting bridge between nitric oxide (NO) and plant stress</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>10.1016/j.stress.2021.100026</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1016/j.stress.2021.100026</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Editorial: Role of Microorganisms in Plant Growth, Stress Amelioration and Phytoremediation</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>10.1016/j.stress.2024.100624</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1016/j.stress.2024.100624</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Plant Stress Physiology: Physiological and Biochemical Strategies Allowing Plants/Crops toThrive under Ionic Stress</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>10.1201/b10329-56</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1201/b10329-56</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Plant hormesis: the energy aspect of low and high-dose stresses</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>10.1016/j.stress.2024.100628</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1016/j.stress.2024.100628</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Chapter 10Role of Dehydrins in Plant Stress Response</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>10.1201/b10329-18</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1201/b10329-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Crosstalk of nanoparticles and phytohormones regulate plant growth and metabolism under abiotic and biotic stress</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>10.1016/j.stress.2022.100107</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1016/j.stress.2022.100107</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Molecular regulations of ethylene signaling in plant salt stress responses</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>10.1016/j.stress.2024.100583</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1016/j.stress.2024.100583</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Proteasomes safeguard the plant stress granule homeostasis.</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>39241750</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39241750</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Understanding plant stress memory traits can provide a way for sustainable agriculture</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Editorial: Mineral nutrition and plant stress tolerance.</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>39119494</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39119494</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Emerging roles of the C-to-U RNA editing in plant stress responses.</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>39299521</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39299521</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Stigmasterol: An Enigmatic Plant Stress Sterol with Versatile Functions.</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>39125690</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39125690</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>EccDNA in plant-stress and biotechnological solutions in agriculture.</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>38908942</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/38908942</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Redox regulation of plant stress and development.</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>38695092</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/38695092</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Facing climate change: plant stress mitigation strategies in agriculture.</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>39157905</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39157905</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Nanoparticles as a Tool for Alleviating Plant Stress: Mechanisms, Implications, and Challenges.</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>38891334</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/38891334</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Fine-tuning phosphatidic acid production for optimal plant stress responses.</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>38908926</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/38908926</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Research progress on plant stress-associated protein (SAP) family: Master regulators to deal with environmental stresses.</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>39248672</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39248672</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Microbial inoculants modulate the rhizosphere microbiome, alleviate plant stress responses and enhance maize growth at field scale </t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>The multifaceted role of RNA-based regulation in plant stress memory.</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>38736453</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/38736453</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Arsenic-induced plant stress: Mitigation strategies and omics approaches to alleviate toxicity.</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>38870680</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/38870680</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Molecular switches in plant stress adaptation.</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>38108912</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/38108912</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Small ubiquitin-like modifiers E3 ligases in plant stress.</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>38669463</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/38669463</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Monitoring the temporal variations of plant stress using the air pollution tolerance index in the Sejzi industrial area (Isfahan, Iran).</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>39312111</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39312111</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Editorial: Hormones and biostimulants in plants: physiological and molecular insights on plant stress responses.</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>38812736</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/38812736</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>An AIE-based ratiometric fluorescent probe for highly selective detection of H&lt;sub&gt;2&lt;/sub&gt;S in plant stress responses.</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>39312836</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/39312836</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Silicon nanoparticles in sustainable agriculture: synthesis, absorption, and plant stress alleviation.</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>38606077</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/38606077</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Cysteine thiol sulfinic acid in plant stress signaling.</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>38251793</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/38251793</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Revisiting plant stress memory: mechanisms and contribution to stress adaptation.</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>38623161</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/38623161</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Calcium Hexacyanoferrate Nanozyme Enhances Plant Stress Resistance by Oxidative Stress Alleviation and Heavy Metal Removal.</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>38856156</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>https://europepmc.org/article/pmc/38856156</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>A Novel Deep Learning Model with Optimized Sparrow Search for Efficient Plant Stress Identification</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Infrared thermography for plant stress detection in vertical farms: Investigating spatiotemporal variations and exploring solutions via machine learning</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
